--- a/BE/api list.xlsx
+++ b/BE/api list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a6ed76e6f9716fff/C Sharp/LandP/BE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_F25DC773A252ABDACC104844699D55705ADE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB5ECD26-68D4-4372-8E3A-9603CB546AF9}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_F25DC773A252ABDACC104844699D55705ADE58EA" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB5ECD26-68D4-4372-8E3A-9603CB546AF9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
